--- a/kinesthetic_actuator_bom.xlsx
+++ b/kinesthetic_actuator_bom.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MrSwirlyEyes/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MrSwirlyEyes/Projects/kinesthetic_actuator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B831F7F9-041C-2743-81E6-BD72C86ED246}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302403CE-D041-074C-B024-6201F1AD2B5E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="1580" windowWidth="28040" windowHeight="17440" xr2:uid="{B4B60D6D-4F0E-A549-8A8E-83B5799A9DB0}"/>
+    <workbookView xWindow="5560" yWindow="1580" windowWidth="28040" windowHeight="17440" xr2:uid="{B4B60D6D-4F0E-A549-8A8E-83B5799A9DB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>DISTPN</t>
   </si>
@@ -39,18 +39,9 @@
     <t>DISTLINK</t>
   </si>
   <si>
-    <t>PRICE</t>
-  </si>
-  <si>
-    <t>DRV8838 Single Brushed DC Motor Driver Carrier</t>
-  </si>
-  <si>
     <t>Polou</t>
   </si>
   <si>
-    <t>https://www.pololu.com/product/2990</t>
-  </si>
-  <si>
     <t>QTY</t>
   </si>
   <si>
@@ -106,6 +97,30 @@
   </si>
   <si>
     <t>B014KONJZY</t>
+  </si>
+  <si>
+    <t>PRICE PER UNIT</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/product/2135</t>
+  </si>
+  <si>
+    <t>DRV8835 Dual Motor Driver</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=1027-1014-ND</t>
+  </si>
+  <si>
+    <t>1027-1014-ND</t>
+  </si>
+  <si>
+    <t>Force Sensitive Resistor</t>
+  </si>
+  <si>
+    <t>PRICE TOTAL</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -141,8 +156,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,15 +475,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A725A96C-B551-F544-B371-8AA186EFAB6D}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -479,44 +500,51 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>2135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4.49</v>
+      </c>
+      <c r="G2">
+        <f>E2*F2</f>
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>2990</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -524,19 +552,23 @@
       <c r="F3">
         <v>23.38</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="0">E3*F3</f>
+        <v>23.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -544,39 +576,47 @@
       <c r="F4">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>20.71</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>41.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -584,25 +624,66 @@
       <c r="F6">
         <v>7.95</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
         <v>10.89</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>12.62</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>12.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9">
+        <f>SUM(G2:G8)</f>
+        <v>119.73</v>
       </c>
     </row>
   </sheetData>
